--- a/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
+++ b/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="1" state="visible" r:id="rId3"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Script name</t>
   </si>
@@ -479,6 +479,9 @@
     <t>UC07_login</t>
   </si>
   <si>
+    <t>Gatling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Профиль для 10 пользователей</t>
   </si>
   <si>
@@ -500,10 +503,10 @@
     <t xml:space="preserve">20 min</t>
   </si>
   <si>
-    <t>requests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Requests total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requests total 20min</t>
   </si>
   <si>
     <t xml:space="preserve">Переход на страницу регистрации</t>
@@ -531,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -572,6 +575,12 @@
       <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.000000"/>
@@ -1211,7 +1220,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1426,50 +1435,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="26" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="26" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="9" fillId="27" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="10" fillId="27" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="0" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="0" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="0" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="0" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="8" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="8" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="41" applyFont="1" applyProtection="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="41" applyFont="1" applyProtection="1">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1550,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="&lt;анонимный&gt;" id="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}"/>
+  <person displayName="&lt;анонимный&gt;" id="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}"/>
 </personList>
 </file>
 
@@ -2400,37 +2413,37 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{001A0028-00BD-4742-8AC9-009900CB0087}" done="0">
+  <threadedComment ref="N2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{001A0028-00BD-4742-8AC9-009900CB0087}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Duration - заполняется на основе данных после выполнения итерации соотвествующего скрипта в Vugen'е
 </text>
   </threadedComment>
-  <threadedComment ref="O2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{004E00EE-0033-4455-8622-004E00E4008E}" done="0">
+  <threadedComment ref="O2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{004E00EE-0033-4455-8622-004E00E4008E}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 ThinkTime - заполнятеся на основе ThinkTime'ов по выполнению одной итерации соотвествующего скрипта в Vugen'е
 </text>
   </threadedComment>
-  <threadedComment ref="P2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{00780022-0023-43D0-825D-00A9003E0016}" done="0">
+  <threadedComment ref="P2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00780022-0023-43D0-825D-00A9003E0016}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Общая длительность одной итерации скрипта ThinkTime + Duration, считается автоматически
 </text>
   </threadedComment>
-  <threadedComment ref="Q2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{00CC0083-00F4-4344-ABE5-00DF00F000B8}" done="0">
+  <threadedComment ref="Q2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00CC0083-00F4-4344-ABE5-00DF00F000B8}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Pacing не должен быть меньше чем Duration + think time (столбец P). Изначально считается как Duration + think time * 2 (коэф запаса времени), далее подгоняется вручную
 </text>
   </threadedComment>
-  <threadedComment ref="R2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{0068001C-004A-49DA-89C5-0022001C00BF}" done="0">
+  <threadedComment ref="R2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{0068001C-004A-49DA-89C5-0022001C00BF}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
 </text>
   </threadedComment>
-  <threadedComment ref="Z2" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{00B300D2-00D1-419D-8327-00E2006A002F}" done="0">
+  <threadedComment ref="Z2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00B300D2-00D1-419D-8327-00E2006A002F}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
 </text>
   </threadedComment>
-  <threadedComment ref="M21" personId="{D7AAEBAA-CB21-767B-5A3D-08CA52C3C273}" id="{00560057-000C-469E-B19F-00EA007B000F}" done="0">
+  <threadedComment ref="M21" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00560057-000C-469E-B19F-00EA007B000F}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 1. Отображение состояния скриптов
 2. Расчёт интенсивности
@@ -5174,7 +5187,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="90" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A61" zoomScale="90" workbookViewId="0">
       <selection activeCell="L37" activeCellId="0" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -5190,2346 +5203,1987 @@
     <col customWidth="1" min="9" max="9" style="63" width="16.620000000000001"/>
     <col customWidth="0" min="10" max="10" style="64" width="8.8300000000000001"/>
     <col customWidth="1" min="11" max="11" style="63" width="12.050000000000001"/>
-    <col customWidth="1" min="12" max="12" style="63" width="11.119999999999999"/>
-    <col customWidth="1" min="13" max="13" style="1" width="16.379999999999999"/>
-    <col customWidth="1" min="14" max="14" style="1" width="4.1600000000000001"/>
-    <col customWidth="1" min="15" max="15" style="1" width="5"/>
-    <col customWidth="1" min="16" max="16" style="1" width="14.16"/>
-    <col customWidth="1" min="17" max="16384" style="0" width="11.529999999999999"/>
+    <col customWidth="1" min="12" max="12" style="1" width="16.379999999999999"/>
+    <col customWidth="1" min="13" max="13" style="1" width="22.140625"/>
+    <col customWidth="1" min="14" max="14" style="1" width="12.7109375"/>
+    <col customWidth="1" min="15" max="15" style="1" width="14.16"/>
+    <col customWidth="1" min="16" max="16384" style="0" width="11.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.800000000000001"/>
+    <row r="1" ht="35.149999999999999" customHeight="1">
+      <c r="E1" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
     <row r="2" ht="13.800000000000001"/>
     <row r="3" ht="22.350000000000001" customHeight="1">
-      <c r="E3" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="E3" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" ht="33">
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="69"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" ht="22.350000000000001" customHeight="1">
+      <c r="E6" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="73">
+        <v>541</v>
+      </c>
+      <c r="H6" s="74">
+        <f>K6*3</f>
+        <v>558</v>
+      </c>
+      <c r="I6" s="75">
+        <f t="shared" ref="I6:I9" si="22">1-G6/H6</f>
+        <v>0.03046594982078854</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68">
+        <v>186</v>
+      </c>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+    </row>
+    <row r="7" ht="22.350000000000001" customHeight="1">
+      <c r="E7" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="73">
+        <v>446</v>
+      </c>
+      <c r="H7" s="74">
+        <f>K7*3</f>
+        <v>462</v>
+      </c>
+      <c r="I7" s="75">
+        <f t="shared" si="22"/>
+        <v>0.034632034632034681</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68">
+        <v>154</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+    </row>
+    <row r="8" ht="22.350000000000001" customHeight="1">
+      <c r="E8" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="73">
+        <v>291</v>
+      </c>
+      <c r="H8" s="74">
+        <f>K8*3</f>
+        <v>300</v>
+      </c>
+      <c r="I8" s="75">
+        <f t="shared" si="22"/>
+        <v>0.030000000000000027</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68">
+        <v>100</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+    </row>
+    <row r="9" ht="22.350000000000001" customHeight="1">
+      <c r="E9" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="73">
+        <v>284</v>
+      </c>
+      <c r="H9" s="74">
+        <f>K9*3</f>
+        <v>288</v>
+      </c>
+      <c r="I9" s="75">
+        <f t="shared" si="22"/>
+        <v>0.01388888888888884</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68">
+        <v>96</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" ht="22.350000000000001" customHeight="1">
+      <c r="E10" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="73">
+        <v>284</v>
+      </c>
+      <c r="H10" s="74">
+        <f>K10*3</f>
+        <v>288</v>
+      </c>
+      <c r="I10" s="75">
+        <f t="shared" ref="I10:I73" si="23">1-G10/H10</f>
+        <v>0.01388888888888884</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68">
+        <v>96</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+    </row>
+    <row r="11" ht="22.350000000000001" customHeight="1">
+      <c r="E11" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="73">
+        <v>171</v>
+      </c>
+      <c r="H11" s="74">
+        <f>K11*3</f>
+        <v>174</v>
+      </c>
+      <c r="I11" s="75">
+        <f t="shared" si="23"/>
+        <v>0.017241379310344862</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68">
+        <v>58</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+    </row>
+    <row r="12" ht="22.350000000000001" customHeight="1">
+      <c r="E12" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="73">
+        <v>267</v>
+      </c>
+      <c r="H12" s="74">
+        <f>K12*3</f>
+        <v>273</v>
+      </c>
+      <c r="I12" s="75">
+        <f t="shared" si="23"/>
+        <v>0.021978021978022011</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68">
+        <v>91</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+    </row>
+    <row r="13" ht="22.350000000000001" customHeight="1">
+      <c r="E13" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="73">
+        <v>69</v>
+      </c>
+      <c r="H13" s="74">
+        <f>K13*3</f>
+        <v>69</v>
+      </c>
+      <c r="I13" s="75">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68">
+        <v>23</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+    </row>
+    <row r="14" ht="22.350000000000001" customHeight="1">
+      <c r="E14" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="73">
+        <v>334</v>
+      </c>
+      <c r="H14" s="74">
+        <f>K14*3</f>
+        <v>345</v>
+      </c>
+      <c r="I14" s="75">
+        <f t="shared" si="23"/>
+        <v>0.031884057971014457</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68">
+        <v>115</v>
+      </c>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+    </row>
+    <row r="15" ht="22.350000000000001" customHeight="1">
+      <c r="E15" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="73">
         <v>95</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="H15" s="74">
+        <f>K15*3</f>
         <v>96</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-    </row>
-    <row r="6" ht="22.350000000000001" customHeight="1">
-      <c r="E6" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="72">
-        <v>541</v>
-      </c>
-      <c r="H6" s="73">
-        <v>540</v>
-      </c>
-      <c r="I6" s="74">
-        <f t="shared" ref="I6:I9" si="22">1-G6/H6</f>
-        <v>-0.00185185185185177</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67">
-        <v>180</v>
-      </c>
-      <c r="L6" s="67">
-        <v>3</v>
-      </c>
-      <c r="M6" s="68">
-        <f t="shared" ref="M6:M9" si="23">H6*L6</f>
-        <v>1620</v>
-      </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-    </row>
-    <row r="7" ht="22.350000000000001" customHeight="1">
-      <c r="E7" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="72">
-        <v>446</v>
-      </c>
-      <c r="H7" s="73">
-        <v>441</v>
-      </c>
-      <c r="I7" s="74">
-        <f t="shared" si="22"/>
-        <v>-0.0113378684807257</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67">
-        <v>147</v>
-      </c>
-      <c r="L7" s="67">
-        <v>3</v>
-      </c>
-      <c r="M7" s="68">
+      <c r="I15" s="75">
         <f t="shared" si="23"/>
-        <v>1323</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-    </row>
-    <row r="8" ht="22.350000000000001" customHeight="1">
-      <c r="E8" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="72">
-        <v>291</v>
-      </c>
-      <c r="H8" s="73">
-        <v>291</v>
-      </c>
-      <c r="I8" s="74">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67">
-        <v>97</v>
-      </c>
-      <c r="L8" s="67">
-        <v>3</v>
-      </c>
-      <c r="M8" s="68">
+        <v>0.01041666666666663</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68">
+        <v>32</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+    </row>
+    <row r="16" ht="22.350000000000001" customHeight="1">
+      <c r="E16" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="73">
+        <v>95</v>
+      </c>
+      <c r="H16" s="74">
+        <f>K16*3</f>
+        <v>96</v>
+      </c>
+      <c r="I16" s="75">
         <f t="shared" si="23"/>
-        <v>873</v>
-      </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" ht="22.350000000000001" customHeight="1">
-      <c r="E9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="72">
-        <v>284</v>
-      </c>
-      <c r="H9" s="73">
-        <v>285</v>
-      </c>
-      <c r="I9" s="74">
-        <f t="shared" si="22"/>
-        <v>0.0035087719298245701</v>
-      </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67">
+        <v>0.01041666666666663</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68">
+        <v>32</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+    </row>
+    <row r="17" ht="30.649999999999999" customHeight="1">
+      <c r="E17" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="73">
         <v>95</v>
       </c>
-      <c r="L9" s="67">
-        <v>1</v>
-      </c>
-      <c r="M9" s="68">
+      <c r="H17" s="74">
+        <f>K17*3</f>
+        <v>96</v>
+      </c>
+      <c r="I17" s="75">
         <f t="shared" si="23"/>
-        <v>285</v>
-      </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-    </row>
-    <row r="10" ht="22.350000000000001" customHeight="1">
-      <c r="E10" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="72">
-        <v>284</v>
-      </c>
-      <c r="H10" s="73">
-        <v>285</v>
-      </c>
-      <c r="I10" s="74">
-        <f t="shared" ref="I10:I73" si="24">1-G10/H10</f>
-        <v>0.0035087719298245701</v>
-      </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67">
-        <v>95</v>
-      </c>
-      <c r="L10" s="67">
-        <v>1</v>
-      </c>
-      <c r="M10" s="68">
-        <f t="shared" ref="M10:M17" si="25">H10*L10</f>
-        <v>285</v>
-      </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" ht="22.350000000000001" customHeight="1">
-      <c r="E11" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="72">
-        <v>171</v>
-      </c>
-      <c r="H11" s="73">
-        <v>174</v>
-      </c>
-      <c r="I11" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0172413793103449</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67">
-        <v>58</v>
-      </c>
-      <c r="L11" s="67">
-        <v>1</v>
-      </c>
-      <c r="M11" s="68">
-        <f t="shared" si="25"/>
-        <v>174</v>
-      </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-    </row>
-    <row r="12" ht="22.350000000000001" customHeight="1">
-      <c r="E12" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="72">
-        <v>267</v>
-      </c>
-      <c r="H12" s="73">
-        <v>267</v>
-      </c>
-      <c r="I12" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67">
-        <v>89</v>
-      </c>
-      <c r="L12" s="67">
-        <v>3</v>
-      </c>
-      <c r="M12" s="68">
-        <f t="shared" si="25"/>
-        <v>801</v>
-      </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-    </row>
-    <row r="13" ht="22.350000000000001" customHeight="1">
-      <c r="E13" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="72">
-        <v>69</v>
-      </c>
-      <c r="H13" s="73">
-        <v>69</v>
-      </c>
-      <c r="I13" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67">
-        <v>23</v>
-      </c>
-      <c r="L13" s="67">
-        <v>1</v>
-      </c>
-      <c r="M13" s="68">
-        <f t="shared" si="25"/>
-        <v>69</v>
-      </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-    </row>
-    <row r="14" ht="22.350000000000001" customHeight="1">
-      <c r="E14" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="72">
-        <v>334</v>
-      </c>
-      <c r="H14" s="73">
-        <v>330</v>
-      </c>
-      <c r="I14" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.012121212121212199</v>
-      </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67">
-        <v>110</v>
-      </c>
-      <c r="L14" s="67">
-        <v>2</v>
-      </c>
-      <c r="M14" s="68">
-        <f t="shared" si="25"/>
-        <v>660</v>
-      </c>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-    </row>
-    <row r="15" ht="22.350000000000001" customHeight="1">
-      <c r="E15" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="72">
-        <v>95</v>
-      </c>
-      <c r="H15" s="73">
-        <v>93</v>
-      </c>
-      <c r="I15" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.021505376344085999</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67">
-        <v>31</v>
-      </c>
-      <c r="L15" s="67">
-        <v>1</v>
-      </c>
-      <c r="M15" s="68">
-        <f t="shared" si="25"/>
-        <v>93</v>
-      </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" ht="22.350000000000001" customHeight="1">
-      <c r="E16" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="72">
-        <v>95</v>
-      </c>
-      <c r="H16" s="73">
-        <v>93</v>
-      </c>
-      <c r="I16" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.021505376344085999</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67">
-        <v>31</v>
-      </c>
-      <c r="L16" s="67">
-        <v>1</v>
-      </c>
-      <c r="M16" s="68">
-        <f t="shared" si="25"/>
-        <v>93</v>
-      </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" ht="30.649999999999999" customHeight="1">
-      <c r="E17" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="72">
-        <v>95</v>
-      </c>
-      <c r="H17" s="73">
-        <v>93</v>
-      </c>
-      <c r="I17" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.021505376344085999</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67">
-        <v>31</v>
-      </c>
-      <c r="L17" s="67">
-        <v>3</v>
-      </c>
-      <c r="M17" s="68">
-        <f t="shared" si="25"/>
-        <v>279</v>
-      </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
+        <v>0.01041666666666663</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68">
+        <v>32</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="75">
+      <c r="F18" s="68"/>
+      <c r="G18" s="76">
         <f>SUM(G6:G17)</f>
         <v>2972</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="76">
         <f>SUM(H6:H17)</f>
-        <v>2961</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68">
-        <f>SUM(M6:M17)</f>
-        <v>6555</v>
-      </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
+        <v>3045</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68">
+        <f>SUM(K6:K17)</f>
+        <v>1015</v>
+      </c>
+      <c r="L18" s="69">
+        <f>M18*3</f>
+        <v>9054</v>
+      </c>
+      <c r="M18" s="69">
+        <v>3018</v>
+      </c>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" ht="16.5">
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" ht="16.5">
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" ht="16.5">
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
     </row>
     <row r="22" ht="16.5">
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
     </row>
     <row r="23" ht="21.550000000000001" customHeight="1">
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+    </row>
+    <row r="24" ht="21.550000000000001" customHeight="1">
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+    </row>
+    <row r="25" ht="21.550000000000001" customHeight="1">
+      <c r="E25" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+    </row>
+    <row r="26" ht="21.550000000000001" customHeight="1">
+      <c r="E26" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="73">
+        <v>1082</v>
+      </c>
+      <c r="H26" s="74">
+        <f>K26*3</f>
+        <v>1116</v>
+      </c>
+      <c r="I26" s="75">
+        <f t="shared" si="23"/>
+        <v>0.03046594982078854</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68">
+        <v>372</v>
+      </c>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+    </row>
+    <row r="27" ht="21.550000000000001" customHeight="1">
+      <c r="E27" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="73">
+        <v>893</v>
+      </c>
+      <c r="H27" s="74">
+        <f t="shared" ref="H27:H37" si="24">K27*3</f>
+        <v>924</v>
+      </c>
+      <c r="I27" s="75">
+        <f t="shared" si="23"/>
+        <v>0.033549783549783552</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68">
+        <v>308</v>
+      </c>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+    </row>
+    <row r="28" ht="21.550000000000001" customHeight="1">
+      <c r="E28" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="73">
+        <v>583</v>
+      </c>
+      <c r="H28" s="74">
+        <f t="shared" si="24"/>
+        <v>600</v>
+      </c>
+      <c r="I28" s="75">
+        <f t="shared" si="23"/>
+        <v>0.028333333333333321</v>
+      </c>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68">
+        <v>200</v>
+      </c>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+    </row>
+    <row r="29" ht="21.550000000000001" customHeight="1">
+      <c r="E29" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="73">
+        <v>568</v>
+      </c>
+      <c r="H29" s="74">
+        <f t="shared" si="24"/>
+        <v>576</v>
+      </c>
+      <c r="I29" s="75">
+        <f t="shared" si="23"/>
+        <v>0.01388888888888884</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68">
+        <v>192</v>
+      </c>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+    </row>
+    <row r="30" ht="21.550000000000001" customHeight="1">
+      <c r="E30" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="73">
+        <v>568</v>
+      </c>
+      <c r="H30" s="74">
+        <f t="shared" si="24"/>
+        <v>576</v>
+      </c>
+      <c r="I30" s="75">
+        <f t="shared" si="23"/>
+        <v>0.01388888888888884</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68">
+        <v>192</v>
+      </c>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+    </row>
+    <row r="31" ht="21.550000000000001" customHeight="1">
+      <c r="E31" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="73">
+        <v>343</v>
+      </c>
+      <c r="H31" s="74">
+        <f t="shared" si="24"/>
+        <v>348</v>
+      </c>
+      <c r="I31" s="75">
+        <f t="shared" si="23"/>
+        <v>0.014367816091954033</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68">
+        <v>116</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+    </row>
+    <row r="32" ht="21.550000000000001" customHeight="1">
+      <c r="E32" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="73">
+        <v>535</v>
+      </c>
+      <c r="H32" s="74">
+        <f t="shared" si="24"/>
+        <v>546</v>
+      </c>
+      <c r="I32" s="75">
+        <f t="shared" si="23"/>
+        <v>0.020146520146520186</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68">
+        <v>182</v>
+      </c>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+    </row>
+    <row r="33" ht="21.550000000000001" customHeight="1">
+      <c r="E33" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="73">
+        <v>138</v>
+      </c>
+      <c r="H33" s="74">
+        <f t="shared" si="24"/>
+        <v>138</v>
+      </c>
+      <c r="I33" s="75">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68">
+        <v>46</v>
+      </c>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+    </row>
+    <row r="34" ht="21.550000000000001" customHeight="1">
+      <c r="E34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="73">
+        <v>668</v>
+      </c>
+      <c r="H34" s="74">
+        <f t="shared" si="24"/>
+        <v>690</v>
+      </c>
+      <c r="I34" s="75">
+        <f t="shared" si="23"/>
+        <v>0.031884057971014457</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68">
+        <v>230</v>
+      </c>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+    </row>
+    <row r="35" ht="21.550000000000001" customHeight="1">
+      <c r="E35" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="73">
+        <v>189</v>
+      </c>
+      <c r="H35" s="74">
+        <f t="shared" si="24"/>
+        <v>192</v>
+      </c>
+      <c r="I35" s="75">
+        <f t="shared" si="23"/>
+        <v>0.015625</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68">
+        <v>64</v>
+      </c>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+    </row>
+    <row r="36" ht="21.550000000000001" customHeight="1">
+      <c r="E36" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="73">
+        <v>189</v>
+      </c>
+      <c r="H36" s="74">
+        <f t="shared" si="24"/>
+        <v>192</v>
+      </c>
+      <c r="I36" s="75">
+        <f t="shared" si="23"/>
+        <v>0.015625</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68">
+        <v>64</v>
+      </c>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+    </row>
+    <row r="37" ht="30.649999999999999" customHeight="1">
+      <c r="E37" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" ht="21.550000000000001" customHeight="1">
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" ht="21.550000000000001" customHeight="1">
-      <c r="E25" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-    </row>
-    <row r="26" ht="21.550000000000001" customHeight="1">
-      <c r="E26" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="72">
-        <v>1082</v>
-      </c>
-      <c r="H26" s="73">
-        <f t="shared" ref="H26:H37" si="26">K26*3</f>
-        <v>1077</v>
-      </c>
-      <c r="I26" s="74">
+      <c r="F37" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="73">
+        <v>189</v>
+      </c>
+      <c r="H37" s="74">
         <f t="shared" si="24"/>
-        <v>-0.0046425255338904403</v>
-      </c>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67">
-        <v>359</v>
-      </c>
-      <c r="L26" s="67">
-        <v>3</v>
-      </c>
-      <c r="M26" s="68">
-        <f t="shared" ref="M26:M37" si="27">H26*L26</f>
-        <v>3231</v>
-      </c>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-    </row>
-    <row r="27" ht="21.550000000000001" customHeight="1">
-      <c r="E27" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="72">
-        <v>893</v>
-      </c>
-      <c r="H27" s="73">
-        <f t="shared" si="26"/>
-        <v>891</v>
-      </c>
-      <c r="I27" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.00224466891133557</v>
-      </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67">
-        <v>297</v>
-      </c>
-      <c r="L27" s="67">
-        <v>3</v>
-      </c>
-      <c r="M27" s="68">
-        <f t="shared" si="27"/>
-        <v>2673</v>
-      </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-    </row>
-    <row r="28" ht="21.550000000000001" customHeight="1">
-      <c r="E28" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="72">
-        <v>583</v>
-      </c>
-      <c r="H28" s="73">
-        <f t="shared" si="26"/>
-        <v>576</v>
-      </c>
-      <c r="I28" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0121527777777777</v>
-      </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67">
         <v>192</v>
       </c>
-      <c r="L28" s="67">
-        <v>3</v>
-      </c>
-      <c r="M28" s="68">
-        <f t="shared" si="27"/>
-        <v>1728</v>
-      </c>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-    </row>
-    <row r="29" ht="21.550000000000001" customHeight="1">
-      <c r="E29" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="72">
-        <v>568</v>
-      </c>
-      <c r="H29" s="73">
-        <f t="shared" si="26"/>
-        <v>570</v>
-      </c>
-      <c r="I29" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0035087719298245701</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67">
-        <v>190</v>
-      </c>
-      <c r="L29" s="67">
-        <v>1</v>
-      </c>
-      <c r="M29" s="68">
-        <f t="shared" si="27"/>
-        <v>570</v>
-      </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-    </row>
-    <row r="30" ht="21.550000000000001" customHeight="1">
-      <c r="E30" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="72">
-        <v>568</v>
-      </c>
-      <c r="H30" s="73">
-        <f t="shared" si="26"/>
-        <v>573</v>
-      </c>
-      <c r="I30" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0087260034904014204</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67">
-        <v>191</v>
-      </c>
-      <c r="L30" s="67">
-        <v>1</v>
-      </c>
-      <c r="M30" s="68">
-        <f t="shared" si="27"/>
-        <v>573</v>
-      </c>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-    </row>
-    <row r="31" ht="21.550000000000001" customHeight="1">
-      <c r="E31" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="72">
-        <v>343</v>
-      </c>
-      <c r="H31" s="73">
-        <f t="shared" si="26"/>
-        <v>345</v>
-      </c>
-      <c r="I31" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0057971014492753702</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67">
-        <v>115</v>
-      </c>
-      <c r="L31" s="67">
-        <v>1</v>
-      </c>
-      <c r="M31" s="68">
-        <f t="shared" si="27"/>
-        <v>345</v>
-      </c>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-    </row>
-    <row r="32" ht="21.550000000000001" customHeight="1">
-      <c r="E32" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="72">
-        <v>535</v>
-      </c>
-      <c r="H32" s="73">
-        <f t="shared" si="26"/>
-        <v>534</v>
-      </c>
-      <c r="I32" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.00187265917602986</v>
-      </c>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67">
-        <v>178</v>
-      </c>
-      <c r="L32" s="67">
-        <v>3</v>
-      </c>
-      <c r="M32" s="68">
-        <f t="shared" si="27"/>
-        <v>1602</v>
-      </c>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-    </row>
-    <row r="33" ht="21.550000000000001" customHeight="1">
-      <c r="E33" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="72">
-        <v>138</v>
-      </c>
-      <c r="H33" s="73">
-        <f t="shared" si="26"/>
-        <v>135</v>
-      </c>
-      <c r="I33" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.022222222222222102</v>
-      </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67">
-        <v>45</v>
-      </c>
-      <c r="L33" s="67">
-        <v>1</v>
-      </c>
-      <c r="M33" s="68">
-        <f t="shared" si="27"/>
-        <v>135</v>
-      </c>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-    </row>
-    <row r="34" ht="21.550000000000001" customHeight="1">
-      <c r="E34" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="72">
-        <v>668</v>
-      </c>
-      <c r="H34" s="73">
-        <f t="shared" si="26"/>
-        <v>669</v>
-      </c>
-      <c r="I34" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0014947683109117801</v>
-      </c>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67">
-        <v>223</v>
-      </c>
-      <c r="L34" s="67">
-        <v>2</v>
-      </c>
-      <c r="M34" s="68">
-        <f t="shared" si="27"/>
-        <v>1338</v>
-      </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-    </row>
-    <row r="35" ht="21.550000000000001" customHeight="1">
-      <c r="E35" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="72">
-        <v>189</v>
-      </c>
-      <c r="H35" s="73">
-        <f t="shared" si="26"/>
-        <v>189</v>
-      </c>
-      <c r="I35" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67">
-        <v>63</v>
-      </c>
-      <c r="L35" s="67">
-        <v>1</v>
-      </c>
-      <c r="M35" s="68">
-        <f t="shared" si="27"/>
-        <v>189</v>
-      </c>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-    </row>
-    <row r="36" ht="21.550000000000001" customHeight="1">
-      <c r="E36" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="72">
-        <v>189</v>
-      </c>
-      <c r="H36" s="73">
-        <f t="shared" si="26"/>
-        <v>189</v>
-      </c>
-      <c r="I36" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67">
-        <v>63</v>
-      </c>
-      <c r="L36" s="67">
-        <v>1</v>
-      </c>
-      <c r="M36" s="68">
-        <f t="shared" si="27"/>
-        <v>189</v>
-      </c>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-    </row>
-    <row r="37" ht="30.649999999999999" customHeight="1">
-      <c r="E37" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="72">
-        <v>189</v>
-      </c>
-      <c r="H37" s="73">
-        <f t="shared" si="26"/>
-        <v>189</v>
-      </c>
-      <c r="I37" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67">
-        <v>63</v>
-      </c>
-      <c r="L37" s="67">
-        <v>3</v>
-      </c>
-      <c r="M37" s="68">
-        <f t="shared" si="27"/>
-        <v>567</v>
-      </c>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
+      <c r="I37" s="75">
+        <f t="shared" si="23"/>
+        <v>0.015625</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="68">
+        <v>64</v>
+      </c>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
     </row>
     <row r="38" ht="21.550000000000001" customHeight="1">
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="75">
+      <c r="F38" s="68"/>
+      <c r="G38" s="76">
         <f>SUM(G26:G37)</f>
         <v>5945</v>
       </c>
-      <c r="H38" s="75">
+      <c r="H38" s="76">
         <f>SUM(H26:H37)</f>
-        <v>5937</v>
-      </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="68">
-        <f>SUM(M26:M37)</f>
-        <v>13140</v>
-      </c>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
+        <v>6090</v>
+      </c>
+      <c r="I38" s="68"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69">
+        <f>M38*3</f>
+        <v>18120</v>
+      </c>
+      <c r="M38" s="69">
+        <v>6040</v>
+      </c>
+      <c r="N38" s="69"/>
     </row>
     <row r="39" ht="21.550000000000001" customHeight="1">
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
     </row>
     <row r="40" ht="16.5">
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
     </row>
     <row r="41" ht="16.5">
-      <c r="E41" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
+      <c r="E41" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
     </row>
     <row r="42" ht="16.5">
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
     </row>
     <row r="43" ht="33">
-      <c r="E43" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="69" t="s">
+      <c r="E43" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="F43" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="G43" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="69" t="s">
+      <c r="H43" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67" t="s">
+      <c r="I43" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="L43" s="67" t="s">
+      <c r="J43" s="67"/>
+      <c r="K43" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="M43" s="67" t="s">
+      <c r="L43" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
     </row>
     <row r="44" ht="16.5">
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="73">
         <v>1082</v>
       </c>
-      <c r="H44" s="73">
-        <v>1077</v>
-      </c>
-      <c r="I44" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0046425255338904403</v>
-      </c>
-      <c r="J44" s="66"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67">
-        <v>3</v>
-      </c>
-      <c r="M44" s="68">
-        <f t="shared" ref="M44:M55" si="28">H44*L44</f>
-        <v>3231</v>
-      </c>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
+      <c r="H44" s="74">
+        <v>1090</v>
+      </c>
+      <c r="I44" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0073394495412844041</v>
+      </c>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
     </row>
     <row r="45" ht="16.5">
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="73">
         <v>893</v>
       </c>
-      <c r="H45" s="73">
-        <v>889</v>
-      </c>
-      <c r="I45" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0044994375703038001</v>
-      </c>
-      <c r="J45" s="66"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67">
-        <v>3</v>
-      </c>
-      <c r="M45" s="68">
-        <f t="shared" si="28"/>
-        <v>2667</v>
-      </c>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
+      <c r="H45" s="74">
+        <v>900</v>
+      </c>
+      <c r="I45" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0077777777777777724</v>
+      </c>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
     </row>
     <row r="46" ht="16.5">
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="73">
         <v>583</v>
       </c>
-      <c r="H46" s="73">
-        <v>580</v>
-      </c>
-      <c r="I46" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0051724137931035098</v>
-      </c>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67">
-        <v>3</v>
-      </c>
-      <c r="M46" s="68">
-        <f t="shared" si="28"/>
-        <v>1740</v>
-      </c>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
+      <c r="H46" s="74">
+        <v>588</v>
+      </c>
+      <c r="I46" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0085034013605441716</v>
+      </c>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
     </row>
     <row r="47" ht="16.5">
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="73">
         <v>568</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="74">
+        <v>572</v>
+      </c>
+      <c r="I47" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0069930069930069783</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="E48" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="73">
         <v>568</v>
       </c>
-      <c r="I47" s="74">
-        <f t="shared" si="24"/>
+      <c r="H48" s="74">
+        <v>572</v>
+      </c>
+      <c r="I48" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0069930069930069783</v>
+      </c>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="E49" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="73">
+        <v>343</v>
+      </c>
+      <c r="H49" s="74">
+        <v>344</v>
+      </c>
+      <c r="I49" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0029069767441860517</v>
+      </c>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="E50" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="73">
+        <v>535</v>
+      </c>
+      <c r="H50" s="74">
+        <v>540</v>
+      </c>
+      <c r="I50" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0092592592592593004</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="E51" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="73">
+        <v>138</v>
+      </c>
+      <c r="H51" s="74">
+        <v>138</v>
+      </c>
+      <c r="I51" s="75">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J47" s="66"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67">
-        <v>1</v>
-      </c>
-      <c r="M47" s="68">
-        <f t="shared" si="28"/>
-        <v>568</v>
-      </c>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-    </row>
-    <row r="48" ht="16.5">
-      <c r="E48" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="72">
-        <v>568</v>
-      </c>
-      <c r="H48" s="73">
-        <v>569</v>
-      </c>
-      <c r="I48" s="74">
-        <f t="shared" si="24"/>
-        <v>0.0017574692442882101</v>
-      </c>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67">
-        <v>1</v>
-      </c>
-      <c r="M48" s="68">
-        <f t="shared" si="28"/>
-        <v>569</v>
-      </c>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-    </row>
-    <row r="49" ht="16.5">
-      <c r="E49" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="72">
-        <v>343</v>
-      </c>
-      <c r="H49" s="73">
-        <v>342</v>
-      </c>
-      <c r="I49" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0029239766081872202</v>
-      </c>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67">
-        <v>1</v>
-      </c>
-      <c r="M49" s="68">
-        <f t="shared" si="28"/>
-        <v>342</v>
-      </c>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-    </row>
-    <row r="50" ht="16.5">
-      <c r="E50" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="72">
-        <v>535</v>
-      </c>
-      <c r="H50" s="73">
-        <v>533</v>
-      </c>
-      <c r="I50" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0037523452157599601</v>
-      </c>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67">
-        <v>3</v>
-      </c>
-      <c r="M50" s="68">
-        <f t="shared" si="28"/>
-        <v>1599</v>
-      </c>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-    </row>
-    <row r="51" ht="16.5">
-      <c r="E51" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="72">
-        <v>138</v>
-      </c>
-      <c r="H51" s="73">
-        <v>138</v>
-      </c>
-      <c r="I51" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="66"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67">
-        <v>1</v>
-      </c>
-      <c r="M51" s="68">
-        <f t="shared" si="28"/>
-        <v>138</v>
-      </c>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
     </row>
     <row r="52" ht="16.5">
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="72">
+      <c r="G52" s="73">
         <v>668</v>
       </c>
-      <c r="H52" s="73">
-        <v>663</v>
-      </c>
-      <c r="I52" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0075414781297133996</v>
-      </c>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67">
-        <v>2</v>
-      </c>
-      <c r="M52" s="68">
-        <f t="shared" si="28"/>
-        <v>1326</v>
-      </c>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
+      <c r="H52" s="74">
+        <v>672</v>
+      </c>
+      <c r="I52" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0059523809523809312</v>
+      </c>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
     </row>
     <row r="53" ht="16.5">
-      <c r="E53" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="71" t="s">
+      <c r="E53" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="72">
+      <c r="G53" s="73">
         <v>189</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="74">
+        <v>190</v>
+      </c>
+      <c r="I53" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0052631578947368585</v>
+      </c>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="E54" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="73">
         <v>189</v>
       </c>
-      <c r="I53" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="66"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67">
-        <v>1</v>
-      </c>
-      <c r="M53" s="68">
-        <f t="shared" si="28"/>
+      <c r="H54" s="74">
+        <v>190</v>
+      </c>
+      <c r="I54" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0052631578947368585</v>
+      </c>
+      <c r="J54" s="67"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+    </row>
+    <row r="55" ht="33">
+      <c r="E55" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="73">
         <v>189</v>
       </c>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-    </row>
-    <row r="54" ht="16.5">
-      <c r="E54" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="72">
-        <v>189</v>
-      </c>
-      <c r="H54" s="73">
-        <v>189</v>
-      </c>
-      <c r="I54" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="66"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67">
-        <v>1</v>
-      </c>
-      <c r="M54" s="68">
-        <f t="shared" si="28"/>
-        <v>189</v>
-      </c>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-    </row>
-    <row r="55" ht="33">
-      <c r="E55" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="72">
-        <v>189</v>
-      </c>
-      <c r="H55" s="73">
-        <v>189</v>
-      </c>
-      <c r="I55" s="74">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="66"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67">
-        <v>3</v>
-      </c>
-      <c r="M55" s="68">
-        <f t="shared" si="28"/>
-        <v>567</v>
-      </c>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
+      <c r="H55" s="74">
+        <v>190</v>
+      </c>
+      <c r="I55" s="75">
+        <f t="shared" si="23"/>
+        <v>0.0052631578947368585</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
     </row>
     <row r="56" ht="16.5">
-      <c r="E56" s="67" t="s">
+      <c r="E56" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="75">
+      <c r="F56" s="68"/>
+      <c r="G56" s="76">
         <f>SUM(G44:G55)</f>
         <v>5945</v>
       </c>
-      <c r="H56" s="75">
+      <c r="H56" s="76">
         <f>SUM(H44:H55)</f>
-        <v>5926</v>
-      </c>
-      <c r="I56" s="67"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="68">
-        <f>SUM(M44:M55)</f>
-        <v>13125</v>
-      </c>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
+        <v>5986</v>
+      </c>
+      <c r="I56" s="68"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69">
+        <v>17790</v>
+      </c>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
     </row>
     <row r="57" ht="16.5">
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
     </row>
     <row r="58" ht="16.5">
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
     </row>
     <row r="59" ht="16.5">
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
     </row>
     <row r="60" ht="16.5">
-      <c r="E60" s="65" t="s">
+      <c r="E60" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+    </row>
+    <row r="62" ht="33">
+      <c r="E62" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="67"/>
+      <c r="K62" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+    </row>
+    <row r="63" ht="16.5">
+      <c r="E63" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="73">
+        <v>1623</v>
+      </c>
+      <c r="H63" s="74">
+        <f t="shared" ref="H63:H74" si="25">K63*3</f>
+        <v>1599</v>
+      </c>
+      <c r="I63" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.015009380863039379</v>
+      </c>
+      <c r="J63" s="67"/>
+      <c r="K63" s="68">
+        <v>533</v>
+      </c>
+      <c r="L63" s="69"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+    </row>
+    <row r="64" ht="16.5">
+      <c r="E64" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="73">
+        <v>1339</v>
+      </c>
+      <c r="H64" s="74">
+        <f t="shared" si="25"/>
+        <v>1218</v>
+      </c>
+      <c r="I64" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.099343185550082147</v>
+      </c>
+      <c r="J64" s="67"/>
+      <c r="K64" s="68">
+        <v>406</v>
+      </c>
+      <c r="L64" s="69"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+    </row>
+    <row r="65" ht="16.399999999999999">
+      <c r="E65" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="73">
+        <v>874</v>
+      </c>
+      <c r="H65" s="74">
+        <f t="shared" si="25"/>
+        <v>699</v>
+      </c>
+      <c r="I65" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.25035765379113029</v>
+      </c>
+      <c r="J65" s="67"/>
+      <c r="K65" s="68">
+        <v>233</v>
+      </c>
+      <c r="L65" s="69"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+    </row>
+    <row r="66" ht="16.399999999999999">
+      <c r="E66" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="73">
+        <v>852</v>
+      </c>
+      <c r="H66" s="74">
+        <f t="shared" si="25"/>
+        <v>654</v>
+      </c>
+      <c r="I66" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.30275229357798161</v>
+      </c>
+      <c r="J66" s="67"/>
+      <c r="K66" s="68">
+        <v>218</v>
+      </c>
+      <c r="L66" s="69"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+    </row>
+    <row r="67" ht="16.399999999999999">
+      <c r="E67" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="73">
+        <v>852</v>
+      </c>
+      <c r="H67" s="74">
+        <f t="shared" si="25"/>
+        <v>645</v>
+      </c>
+      <c r="I67" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.32093023255813957</v>
+      </c>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68">
+        <v>215</v>
+      </c>
+      <c r="L67" s="69"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+    </row>
+    <row r="68" ht="16.399999999999999">
+      <c r="E68" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="73">
+        <v>514</v>
+      </c>
+      <c r="H68" s="74">
+        <f t="shared" si="25"/>
+        <v>324</v>
+      </c>
+      <c r="I68" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.58641975308641969</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="68">
         <v>108</v>
       </c>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-    </row>
-    <row r="61" ht="16.5">
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-    </row>
-    <row r="62" ht="33">
-      <c r="E62" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="H62" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="L62" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M62" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="N62" s="76"/>
-      <c r="O62" s="76"/>
-    </row>
-    <row r="63" ht="16.5">
-      <c r="E63" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63" s="72">
-        <v>1623</v>
-      </c>
-      <c r="H63" s="73">
-        <f t="shared" ref="H63:H74" si="29">K63*3</f>
-        <v>1482</v>
-      </c>
-      <c r="I63" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.095141700404858295</v>
-      </c>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67">
-        <v>494</v>
-      </c>
-      <c r="L63" s="67">
-        <v>3</v>
-      </c>
-      <c r="M63" s="68">
-        <f t="shared" ref="M63:M74" si="30">H63*L63</f>
-        <v>4446</v>
-      </c>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-    </row>
-    <row r="64" ht="16.5">
-      <c r="E64" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="72">
-        <v>1339</v>
-      </c>
-      <c r="H64" s="73">
-        <f t="shared" si="29"/>
-        <v>1206</v>
-      </c>
-      <c r="I64" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.11028192371476001</v>
-      </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67">
-        <v>402</v>
-      </c>
-      <c r="L64" s="67">
-        <v>3</v>
-      </c>
-      <c r="M64" s="68">
-        <f t="shared" si="30"/>
-        <v>3618</v>
-      </c>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-    </row>
-    <row r="65" ht="16.399999999999999">
-      <c r="E65" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="72">
-        <v>874</v>
-      </c>
-      <c r="H65" s="73">
-        <f t="shared" si="29"/>
-        <v>744</v>
-      </c>
-      <c r="I65" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.17473118279569899</v>
-      </c>
-      <c r="J65" s="66"/>
-      <c r="K65" s="67">
-        <v>248</v>
-      </c>
-      <c r="L65" s="67">
-        <v>3</v>
-      </c>
-      <c r="M65" s="68">
-        <f t="shared" si="30"/>
-        <v>2232</v>
-      </c>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-    </row>
-    <row r="66" ht="16.399999999999999">
-      <c r="E66" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" s="72">
-        <v>852</v>
-      </c>
-      <c r="H66" s="73">
-        <f t="shared" si="29"/>
-        <v>735</v>
-      </c>
-      <c r="I66" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.159183673469388</v>
-      </c>
-      <c r="J66" s="66"/>
-      <c r="K66" s="67">
-        <v>245</v>
-      </c>
-      <c r="L66" s="67">
-        <v>1</v>
-      </c>
-      <c r="M66" s="68">
-        <f t="shared" si="30"/>
-        <v>735</v>
-      </c>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-    </row>
-    <row r="67" ht="16.399999999999999">
-      <c r="E67" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="72">
-        <v>852</v>
-      </c>
-      <c r="H67" s="73">
-        <f t="shared" si="29"/>
-        <v>732</v>
-      </c>
-      <c r="I67" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.16393442622950799</v>
-      </c>
-      <c r="J67" s="66"/>
-      <c r="K67" s="67">
-        <v>244</v>
-      </c>
-      <c r="L67" s="67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="68">
-        <f t="shared" si="30"/>
-        <v>732</v>
-      </c>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-    </row>
-    <row r="68" ht="16.399999999999999">
-      <c r="E68" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="72">
-        <v>514</v>
-      </c>
-      <c r="H68" s="73">
-        <f t="shared" si="29"/>
-        <v>405</v>
-      </c>
-      <c r="I68" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.26913580246913599</v>
-      </c>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67">
-        <v>135</v>
-      </c>
-      <c r="L68" s="67">
-        <v>1</v>
-      </c>
-      <c r="M68" s="68">
-        <f t="shared" si="30"/>
-        <v>405</v>
-      </c>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
     </row>
     <row r="69" ht="16.399999999999999">
-      <c r="E69" s="70" t="s">
+      <c r="E69" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G69" s="72">
+      <c r="G69" s="73">
         <v>802</v>
       </c>
-      <c r="H69" s="73">
-        <f t="shared" si="29"/>
-        <v>780</v>
-      </c>
-      <c r="I69" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.028205128205128101</v>
-      </c>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67">
-        <v>260</v>
-      </c>
-      <c r="L69" s="67">
-        <v>3</v>
-      </c>
-      <c r="M69" s="68">
-        <f t="shared" si="30"/>
-        <v>2340</v>
-      </c>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
+      <c r="H69" s="74">
+        <f t="shared" si="25"/>
+        <v>813</v>
+      </c>
+      <c r="I69" s="75">
+        <f t="shared" si="23"/>
+        <v>0.013530135301353052</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="68">
+        <v>271</v>
+      </c>
+      <c r="L69" s="69"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
     </row>
     <row r="70" ht="16.399999999999999">
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="72">
+      <c r="G70" s="73">
         <v>208</v>
       </c>
-      <c r="H70" s="73">
-        <f t="shared" si="29"/>
-        <v>201</v>
-      </c>
-      <c r="I70" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.034825870646766101</v>
-      </c>
-      <c r="J70" s="66"/>
-      <c r="K70" s="67">
-        <v>67</v>
-      </c>
-      <c r="L70" s="67">
-        <v>1</v>
-      </c>
-      <c r="M70" s="68">
-        <f t="shared" si="30"/>
-        <v>201</v>
-      </c>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
+      <c r="H70" s="74">
+        <f t="shared" si="25"/>
+        <v>225</v>
+      </c>
+      <c r="I70" s="75">
+        <f t="shared" si="23"/>
+        <v>0.075555555555555598</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="68">
+        <v>75</v>
+      </c>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
     </row>
     <row r="71" ht="16.399999999999999">
-      <c r="E71" s="70" t="s">
+      <c r="E71" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="72">
+      <c r="G71" s="73">
         <v>1002</v>
       </c>
-      <c r="H71" s="73">
-        <f t="shared" si="29"/>
-        <v>873</v>
-      </c>
-      <c r="I71" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.14776632302405501</v>
-      </c>
-      <c r="J71" s="66"/>
-      <c r="K71" s="67">
-        <v>291</v>
-      </c>
-      <c r="L71" s="67">
-        <v>2</v>
-      </c>
-      <c r="M71" s="68">
-        <f t="shared" si="30"/>
-        <v>1746</v>
-      </c>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
+      <c r="H71" s="74">
+        <f t="shared" si="25"/>
+        <v>855</v>
+      </c>
+      <c r="I71" s="75">
+        <f t="shared" si="23"/>
+        <v>-0.1719298245614036</v>
+      </c>
+      <c r="J71" s="67"/>
+      <c r="K71" s="68">
+        <v>285</v>
+      </c>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
     </row>
     <row r="72" ht="16.399999999999999">
-      <c r="E72" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="71" t="s">
+      <c r="E72" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="72">
+      <c r="G72" s="73">
         <v>284</v>
       </c>
-      <c r="H72" s="73">
-        <f t="shared" si="29"/>
-        <v>279</v>
-      </c>
-      <c r="I72" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0179211469534051</v>
-      </c>
-      <c r="J72" s="66"/>
-      <c r="K72" s="67">
-        <v>93</v>
-      </c>
-      <c r="L72" s="67">
-        <v>1</v>
-      </c>
-      <c r="M72" s="68">
-        <f t="shared" si="30"/>
-        <v>279</v>
-      </c>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
+      <c r="H72" s="74">
+        <f t="shared" si="25"/>
+        <v>357</v>
+      </c>
+      <c r="I72" s="75">
+        <f t="shared" si="23"/>
+        <v>0.20448179271708689</v>
+      </c>
+      <c r="J72" s="67"/>
+      <c r="K72" s="68">
+        <v>119</v>
+      </c>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
     </row>
     <row r="73" ht="16.399999999999999">
-      <c r="E73" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="71" t="s">
+      <c r="E73" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G73" s="72">
+      <c r="G73" s="73">
         <v>284</v>
       </c>
-      <c r="H73" s="73">
-        <f t="shared" si="29"/>
-        <v>279</v>
-      </c>
-      <c r="I73" s="74">
-        <f t="shared" si="24"/>
-        <v>-0.0179211469534051</v>
-      </c>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67">
-        <v>93</v>
-      </c>
-      <c r="L73" s="67">
-        <v>1</v>
-      </c>
-      <c r="M73" s="68">
-        <f t="shared" si="30"/>
-        <v>279</v>
-      </c>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
+      <c r="H73" s="74">
+        <f t="shared" si="25"/>
+        <v>357</v>
+      </c>
+      <c r="I73" s="75">
+        <f t="shared" si="23"/>
+        <v>0.20448179271708689</v>
+      </c>
+      <c r="J73" s="67"/>
+      <c r="K73" s="68">
+        <v>119</v>
+      </c>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
     </row>
     <row r="74" ht="31.300000000000001">
-      <c r="E74" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="71" t="s">
+      <c r="E74" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G74" s="72">
+      <c r="G74" s="73">
         <v>284</v>
       </c>
-      <c r="H74" s="73">
-        <f t="shared" si="29"/>
-        <v>279</v>
-      </c>
-      <c r="I74" s="74">
-        <f t="shared" ref="I74:I92" si="31">1-G74/H74</f>
-        <v>-0.0179211469534051</v>
-      </c>
-      <c r="J74" s="66"/>
-      <c r="K74" s="67">
-        <v>93</v>
-      </c>
-      <c r="L74" s="67">
-        <v>3</v>
-      </c>
-      <c r="M74" s="68">
-        <f t="shared" si="30"/>
-        <v>837</v>
-      </c>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
+      <c r="H74" s="74">
+        <f t="shared" si="25"/>
+        <v>354</v>
+      </c>
+      <c r="I74" s="75">
+        <f t="shared" ref="I74:I92" si="26">1-G74/H74</f>
+        <v>0.19774011299435024</v>
+      </c>
+      <c r="J74" s="67"/>
+      <c r="K74" s="68">
+        <v>118</v>
+      </c>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
     </row>
     <row r="75" ht="13.800000000000001">
-      <c r="E75" s="67" t="s">
+      <c r="E75" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="67"/>
-      <c r="G75" s="75">
+      <c r="F75" s="68"/>
+      <c r="G75" s="76">
         <f>SUM(G63:G74)</f>
         <v>8918</v>
       </c>
-      <c r="H75" s="75">
+      <c r="H75" s="76">
         <f>SUM(H63:H74)</f>
-        <v>7995</v>
-      </c>
-      <c r="I75" s="67"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="68">
-        <f>SUM(M63:M74)</f>
-        <v>17850</v>
-      </c>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
+        <v>8100</v>
+      </c>
+      <c r="I75" s="68"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
     </row>
     <row r="76" ht="13.800000000000001"/>
     <row r="77" ht="13.800000000000001"/>
     <row r="78" ht="13.800000000000001">
-      <c r="E78" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="68"/>
+      <c r="E78" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="69"/>
     </row>
     <row r="79" ht="13.800000000000001">
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="69"/>
     </row>
     <row r="80" ht="31.300000000000001">
-      <c r="E80" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" s="69" t="s">
+      <c r="E80" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G80" s="69" t="s">
+      <c r="F80" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="H80" s="69" t="s">
+      <c r="G80" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="I80" s="69" t="s">
+      <c r="H80" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J80" s="66"/>
-      <c r="K80" s="67" t="s">
+      <c r="I80" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="L80" s="67" t="s">
+      <c r="J80" s="67"/>
+      <c r="K80" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="M80" s="67" t="s">
+      <c r="L80" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" ht="16.399999999999999">
-      <c r="E81" s="70" t="s">
+      <c r="E81" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G81" s="72">
+      <c r="G81" s="73">
         <v>1082</v>
       </c>
-      <c r="H81" s="73">
+      <c r="H81" s="74">
         <v>1082</v>
       </c>
-      <c r="I81" s="74">
-        <f t="shared" si="31"/>
+      <c r="I81" s="75">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J81" s="66"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67">
-        <v>3</v>
-      </c>
-      <c r="M81" s="68">
-        <f t="shared" ref="M81:M92" si="32">H81*L81</f>
-        <v>3246</v>
-      </c>
+      <c r="J81" s="67"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="1"/>
     </row>
     <row r="82" ht="16.399999999999999">
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="71" t="s">
+      <c r="F82" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G82" s="72">
+      <c r="G82" s="73">
         <v>893</v>
       </c>
-      <c r="H82" s="73">
+      <c r="H82" s="74">
         <v>890</v>
       </c>
-      <c r="I82" s="74">
-        <f t="shared" si="31"/>
+      <c r="I82" s="75">
+        <f t="shared" si="26"/>
         <v>-0.00337078651685396</v>
       </c>
-      <c r="J82" s="66"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="67">
-        <v>3</v>
-      </c>
-      <c r="M82" s="68">
-        <f t="shared" si="32"/>
-        <v>2670</v>
-      </c>
+      <c r="J82" s="67"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="1"/>
     </row>
     <row r="83" ht="16.399999999999999">
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="71" t="s">
+      <c r="F83" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="72">
+      <c r="G83" s="73">
         <v>583</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="74">
         <v>580</v>
       </c>
-      <c r="I83" s="74">
-        <f t="shared" si="31"/>
+      <c r="I83" s="75">
+        <f t="shared" si="26"/>
         <v>-0.0051724137931035098</v>
       </c>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67">
-        <v>3</v>
-      </c>
-      <c r="M83" s="68">
-        <f t="shared" si="32"/>
-        <v>1740</v>
-      </c>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="1"/>
     </row>
     <row r="84" ht="16.399999999999999">
-      <c r="E84" s="70" t="s">
+      <c r="E84" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="71" t="s">
+      <c r="F84" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="72">
+      <c r="G84" s="73">
         <v>568</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="74">
         <v>567</v>
       </c>
-      <c r="I84" s="74">
-        <f t="shared" si="31"/>
+      <c r="I84" s="75">
+        <f t="shared" si="26"/>
         <v>-0.0017636684303350401</v>
       </c>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67">
-        <v>1</v>
-      </c>
-      <c r="M84" s="68">
-        <f t="shared" si="32"/>
-        <v>567</v>
-      </c>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="1"/>
     </row>
     <row r="85" ht="16.399999999999999">
-      <c r="E85" s="70" t="s">
+      <c r="E85" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="71" t="s">
+      <c r="F85" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="72">
+      <c r="G85" s="73">
         <v>568</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="74">
         <v>568</v>
       </c>
-      <c r="I85" s="74">
-        <f t="shared" si="31"/>
+      <c r="I85" s="75">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67">
-        <v>1</v>
-      </c>
-      <c r="M85" s="68">
-        <f t="shared" si="32"/>
-        <v>568</v>
-      </c>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="1"/>
     </row>
     <row r="86" ht="16.399999999999999">
-      <c r="E86" s="70" t="s">
+      <c r="E86" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="71" t="s">
+      <c r="F86" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="G86" s="72">
+      <c r="G86" s="73">
         <v>343</v>
       </c>
-      <c r="H86" s="73">
+      <c r="H86" s="74">
         <v>343</v>
       </c>
-      <c r="I86" s="74">
-        <f t="shared" si="31"/>
+      <c r="I86" s="75">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67">
-        <v>1</v>
-      </c>
-      <c r="M86" s="68">
-        <f t="shared" si="32"/>
-        <v>343</v>
-      </c>
+      <c r="J86" s="67"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="1"/>
     </row>
     <row r="87" ht="16.399999999999999">
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G87" s="72">
+      <c r="G87" s="73">
         <v>535</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H87" s="74">
         <v>534</v>
       </c>
-      <c r="I87" s="74">
-        <f t="shared" si="31"/>
+      <c r="I87" s="75">
+        <f t="shared" si="26"/>
         <v>-0.00187265917602986</v>
       </c>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67">
-        <v>3</v>
-      </c>
-      <c r="M87" s="68">
-        <f t="shared" si="32"/>
-        <v>1602</v>
-      </c>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="1"/>
     </row>
     <row r="88" ht="16.399999999999999">
-      <c r="E88" s="70" t="s">
+      <c r="E88" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="71" t="s">
+      <c r="F88" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G88" s="72">
+      <c r="G88" s="73">
         <v>138</v>
       </c>
-      <c r="H88" s="73">
+      <c r="H88" s="74">
         <v>139</v>
       </c>
-      <c r="I88" s="74">
-        <f t="shared" si="31"/>
+      <c r="I88" s="75">
+        <f t="shared" si="26"/>
         <v>0.0071942446043165003</v>
       </c>
-      <c r="J88" s="66"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67">
-        <v>1</v>
-      </c>
-      <c r="M88" s="68">
-        <f t="shared" si="32"/>
-        <v>139</v>
-      </c>
+      <c r="J88" s="67"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="1"/>
     </row>
     <row r="89" ht="16.399999999999999">
-      <c r="E89" s="70" t="s">
+      <c r="E89" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="71" t="s">
+      <c r="F89" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="72">
+      <c r="G89" s="73">
         <v>668</v>
       </c>
-      <c r="H89" s="73">
+      <c r="H89" s="74">
         <v>663</v>
       </c>
-      <c r="I89" s="74">
-        <f t="shared" si="31"/>
+      <c r="I89" s="75">
+        <f t="shared" si="26"/>
         <v>-0.0075414781297133996</v>
       </c>
-      <c r="J89" s="66"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67">
-        <v>2</v>
-      </c>
-      <c r="M89" s="68">
-        <f t="shared" si="32"/>
-        <v>1326</v>
-      </c>
+      <c r="J89" s="67"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" ht="16.399999999999999">
-      <c r="E90" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F90" s="71" t="s">
+      <c r="E90" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G90" s="72">
+      <c r="G90" s="73">
         <v>189</v>
       </c>
-      <c r="H90" s="73">
+      <c r="H90" s="74">
         <v>190</v>
       </c>
-      <c r="I90" s="74">
-        <f t="shared" si="31"/>
+      <c r="I90" s="75">
+        <f t="shared" si="26"/>
         <v>0.0052631578947368602</v>
       </c>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67">
-        <v>1</v>
-      </c>
-      <c r="M90" s="68">
-        <f t="shared" si="32"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" ht="16.399999999999999">
+      <c r="E91" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="73">
+        <v>189</v>
+      </c>
+      <c r="H91" s="74">
         <v>190</v>
       </c>
-    </row>
-    <row r="91" ht="16.399999999999999">
-      <c r="E91" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F91" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91" s="72">
+      <c r="I91" s="75">
+        <f t="shared" si="26"/>
+        <v>0.0052631578947368602</v>
+      </c>
+      <c r="J91" s="67"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" ht="31.300000000000001">
+      <c r="E92" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="73">
         <v>189</v>
       </c>
-      <c r="H91" s="73">
+      <c r="H92" s="74">
         <v>190</v>
       </c>
-      <c r="I91" s="74">
-        <f t="shared" si="31"/>
+      <c r="I92" s="75">
+        <f t="shared" si="26"/>
         <v>0.0052631578947368602</v>
       </c>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67">
-        <v>1</v>
-      </c>
-      <c r="M91" s="68">
-        <f t="shared" si="32"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" ht="31.300000000000001">
-      <c r="E92" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G92" s="72">
-        <v>189</v>
-      </c>
-      <c r="H92" s="73">
-        <v>190</v>
-      </c>
-      <c r="I92" s="74">
-        <f t="shared" si="31"/>
-        <v>0.0052631578947368602</v>
-      </c>
-      <c r="J92" s="66"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67">
-        <v>3</v>
-      </c>
-      <c r="M92" s="68">
-        <f t="shared" si="32"/>
-        <v>570</v>
-      </c>
+      <c r="J92" s="67"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="1"/>
     </row>
     <row r="93" ht="13.800000000000001">
-      <c r="E93" s="67" t="s">
+      <c r="E93" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="67"/>
-      <c r="G93" s="75">
+      <c r="F93" s="68"/>
+      <c r="G93" s="76">
         <f>SUM(G81:G92)</f>
         <v>5945</v>
       </c>
-      <c r="H93" s="75">
+      <c r="H93" s="76">
         <f>SUM(H81:H92)</f>
         <v>5936</v>
       </c>
-      <c r="I93" s="67"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="68">
-        <f>SUM(M81:M92)</f>
-        <v>13151</v>
-      </c>
+      <c r="I93" s="68"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E1:L1"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E41:I41"/>

--- a/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
+++ b/Documents/WebTours_Profil_nagruzki_v1_2_Novaya_statistika.xlsx
@@ -1550,7 +1550,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="&lt;анонимный&gt;" id="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}"/>
+  <person displayName="&lt;анонимный&gt;" id="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}"/>
 </personList>
 </file>
 
@@ -2413,37 +2413,37 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{001A0028-00BD-4742-8AC9-009900CB0087}" done="0">
+  <threadedComment ref="N2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{001A0028-00BD-4742-8AC9-009900CB0087}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Duration - заполняется на основе данных после выполнения итерации соотвествующего скрипта в Vugen'е
 </text>
   </threadedComment>
-  <threadedComment ref="O2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{004E00EE-0033-4455-8622-004E00E4008E}" done="0">
+  <threadedComment ref="O2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{004E00EE-0033-4455-8622-004E00E4008E}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 ThinkTime - заполнятеся на основе ThinkTime'ов по выполнению одной итерации соотвествующего скрипта в Vugen'е
 </text>
   </threadedComment>
-  <threadedComment ref="P2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00780022-0023-43D0-825D-00A9003E0016}" done="0">
+  <threadedComment ref="P2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{00780022-0023-43D0-825D-00A9003E0016}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Общая длительность одной итерации скрипта ThinkTime + Duration, считается автоматически
 </text>
   </threadedComment>
-  <threadedComment ref="Q2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00CC0083-00F4-4344-ABE5-00DF00F000B8}" done="0">
+  <threadedComment ref="Q2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{00CC0083-00F4-4344-ABE5-00DF00F000B8}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Pacing не должен быть меньше чем Duration + think time (столбец P). Изначально считается как Duration + think time * 2 (коэф запаса времени), далее подгоняется вручную
 </text>
   </threadedComment>
-  <threadedComment ref="R2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{0068001C-004A-49DA-89C5-0022001C00BF}" done="0">
+  <threadedComment ref="R2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{0068001C-004A-49DA-89C5-0022001C00BF}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
 </text>
   </threadedComment>
-  <threadedComment ref="Z2" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00B300D2-00D1-419D-8327-00E2006A002F}" done="0">
+  <threadedComment ref="Z2" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{00B300D2-00D1-419D-8327-00E2006A002F}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 Количество пользователей для конкретного скрипта, заполняется вручную, сумма всех пользователей для 100% профиля не должна превышать 10.
 </text>
   </threadedComment>
-  <threadedComment ref="M21" personId="{01CAC7FF-13DF-3B2F-53A5-16057637AEEC}" id="{00560057-000C-469E-B19F-00EA007B000F}" done="0">
+  <threadedComment ref="M21" personId="{4EE1FD5C-5A7A-2AAA-F339-C3D18D7973C3}" id="{00560057-000C-469E-B19F-00EA007B000F}" done="0">
     <text xml:space="preserve">Microsoft Office User:
 1. Отображение состояния скриптов
 2. Расчёт интенсивности
@@ -2571,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE())</f>
+        <f t="shared" ref="E2:E3" si="1">VLOOKUP(A2,$M$1:$X$8,5,FALSE())</f>
         <v>42</v>
       </c>
       <c r="F2" s="13">
-        <f t="shared" ref="F2:F9" si="1">60/E2*C2</f>
+        <f t="shared" ref="F2:F9" si="2">60/E2*C2</f>
         <v>1.4285714285714299</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="2">VLOOKUP(A2,$M$1:$X$8,9,FALSE())</f>
+        <f t="shared" ref="G2:G9" si="3">VLOOKUP(A2,$M$1:$X$8,9,FALSE())</f>
         <v>20</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" ref="H2:H9" si="3">D2*F2*G2</f>
+        <f t="shared" ref="H2:H9" si="4">D2*F2*G2</f>
         <v>57.142857142857103</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -2603,7 +2603,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="20">
-        <f t="shared" ref="P2:P7" si="4">N2+O2</f>
+        <f t="shared" ref="P2:P7" si="5">N2+O2</f>
         <v>22</v>
       </c>
       <c r="Q2" s="21">
@@ -2613,18 +2613,18 @@
         <v>2</v>
       </c>
       <c r="S2" s="23">
-        <f t="shared" ref="S2:S7" si="5">R2/W$2</f>
+        <f t="shared" ref="S2:S7" si="6">R2/W$2</f>
         <v>0.20000000000000001</v>
       </c>
       <c r="T2" s="24">
-        <f t="shared" ref="T2:T7" si="6">60/(Q2)</f>
+        <f t="shared" ref="T2:T7" si="7">60/(Q2)</f>
         <v>1.4285714285714299</v>
       </c>
       <c r="U2" s="25">
         <v>20</v>
       </c>
       <c r="V2" s="26">
-        <f t="shared" ref="V2:V6" si="7">ROUND(R2*T2*U2,0)</f>
+        <f t="shared" ref="V2:V6" si="8">ROUND(R2*T2*U2,0)</f>
         <v>57</v>
       </c>
       <c r="W2" s="27">
@@ -2650,19 +2650,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE())</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857146</v>
       </c>
       <c r="I3" s="29" t="s">
@@ -2682,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Q3" s="21">
@@ -2692,18 +2692,18 @@
         <v>1</v>
       </c>
       <c r="S3" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10000000000000001</v>
       </c>
       <c r="T3" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.15384615384615</v>
       </c>
       <c r="U3" s="25">
         <v>20</v>
       </c>
       <c r="V3" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="W3" s="27"/>
@@ -2722,23 +2722,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="28">
-        <f t="shared" ref="D4:D5" si="8">VLOOKUP(A5,$M$1:$X$8,6,FALSE())</f>
+        <f t="shared" ref="D4:D5" si="9">VLOOKUP(A5,$M$1:$X$8,6,FALSE())</f>
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="9">VLOOKUP(A5,$M$1:$X$8,5,FALSE())</f>
+        <f t="shared" ref="E4:E5" si="10">VLOOKUP(A5,$M$1:$X$8,5,FALSE())</f>
         <v>42</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857103</v>
       </c>
       <c r="I4" s="29" t="s">
@@ -2758,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Q4" s="21">
@@ -2768,18 +2768,18 @@
         <v>1</v>
       </c>
       <c r="S4" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10000000000000001</v>
       </c>
       <c r="T4" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.57894736842105</v>
       </c>
       <c r="U4" s="25">
         <v>20</v>
       </c>
       <c r="V4" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="W4" s="27"/>
@@ -2798,23 +2798,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857103</v>
       </c>
       <c r="I5" s="29" t="s">
@@ -2843,18 +2843,18 @@
         <v>2</v>
       </c>
       <c r="S5" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20000000000000001</v>
       </c>
       <c r="T5" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9375</v>
       </c>
       <c r="U5" s="25">
         <v>20</v>
       </c>
       <c r="V5" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="W5" s="27"/>
@@ -2873,23 +2873,23 @@
         <v>1</v>
       </c>
       <c r="D6" s="28">
-        <f t="shared" ref="D6:D9" si="10">VLOOKUP(A6,$M$1:$X$8,6,FALSE())</f>
+        <f t="shared" ref="D6:D9" si="11">VLOOKUP(A6,$M$1:$X$8,6,FALSE())</f>
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E9" si="11">VLOOKUP(A6,$M$1:$X$8,5,FALSE())</f>
+        <f t="shared" ref="E6:E9" si="12">VLOOKUP(A6,$M$1:$X$8,5,FALSE())</f>
         <v>42</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857103</v>
       </c>
       <c r="I6" s="29" t="s">
@@ -2905,11 +2905,11 @@
         <v>3</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" ref="O6:O7" si="12">3*4</f>
+        <f t="shared" ref="O6:O7" si="13">3*4</f>
         <v>12</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Q6" s="21">
@@ -2919,18 +2919,18 @@
         <v>2</v>
       </c>
       <c r="S6" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20000000000000001</v>
       </c>
       <c r="T6" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.71428571428571397</v>
       </c>
       <c r="U6" s="25">
         <v>20</v>
       </c>
       <c r="V6" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="W6" s="27"/>
@@ -2949,23 +2949,23 @@
         <v>1</v>
       </c>
       <c r="D7" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857103</v>
       </c>
       <c r="I7" s="29" t="s">
@@ -2981,11 +2981,11 @@
         <v>0.60999999999999999</v>
       </c>
       <c r="O7" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.609999999999999</v>
       </c>
       <c r="Q7" s="21">
@@ -2995,11 +2995,11 @@
         <v>2</v>
       </c>
       <c r="S7" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20000000000000001</v>
       </c>
       <c r="T7" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.0625</v>
       </c>
       <c r="U7" s="25">
@@ -3025,23 +3025,23 @@
         <v>1</v>
       </c>
       <c r="D8" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714299</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857103</v>
       </c>
       <c r="I8" s="29" t="s">
@@ -3076,23 +3076,23 @@
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.15384615384615</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.076923076923102</v>
       </c>
       <c r="I9" s="29" t="s">
@@ -3113,23 +3113,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="27">
-        <f t="shared" ref="D10:D33" si="13">VLOOKUP(A10,$M$1:$X$8,6,FALSE())</f>
+        <f t="shared" ref="D10:D33" si="14">VLOOKUP(A10,$M$1:$X$8,6,FALSE())</f>
         <v>1</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" ref="E10:E33" si="14">VLOOKUP(A10,$M$1:$X$8,5,FALSE())</f>
+        <f t="shared" ref="E10:E33" si="15">VLOOKUP(A10,$M$1:$X$8,5,FALSE())</f>
         <v>52</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F33" si="15">60/E10*C10</f>
+        <f t="shared" ref="F10:F33" si="16">60/E10*C10</f>
         <v>1.15384615384615</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G33" si="16">VLOOKUP(A10,$M$1:$X$8,9,FALSE())</f>
+        <f t="shared" ref="G10:G33" si="17">VLOOKUP(A10,$M$1:$X$8,9,FALSE())</f>
         <v>20</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" ref="H10:H33" si="17">D10*F10*G10</f>
+        <f t="shared" ref="H10:H33" si="18">D10*F10*G10</f>
         <v>23.076923076923102</v>
       </c>
       <c r="I10" s="29" t="s">
@@ -3150,23 +3150,23 @@
         <v>1</v>
       </c>
       <c r="D11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.15384615384615</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.076923076923102</v>
       </c>
       <c r="I11" s="29" t="s">
@@ -3187,23 +3187,23 @@
         <v>1</v>
       </c>
       <c r="D12" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.15384615384615</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.076923076923102</v>
       </c>
       <c r="I12" s="29" t="s">
@@ -3224,23 +3224,23 @@
         <v>1</v>
       </c>
       <c r="D13" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.15384615384615</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.076923076923102</v>
       </c>
       <c r="I13" s="29" t="s">
@@ -3261,23 +3261,23 @@
         <v>1</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.57894736842105</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.578947368421101</v>
       </c>
       <c r="I14" s="38" t="s">
@@ -3298,23 +3298,23 @@
         <v>1</v>
       </c>
       <c r="D15" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.57894736842105</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H15" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.578947368421101</v>
       </c>
     </row>
@@ -3329,23 +3329,23 @@
         <v>1</v>
       </c>
       <c r="D16" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.57894736842105</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H16" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.578947368421101</v>
       </c>
     </row>
@@ -3360,23 +3360,23 @@
         <v>1</v>
       </c>
       <c r="D17" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.57894736842105</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.578947368421101</v>
       </c>
     </row>
@@ -3391,23 +3391,23 @@
         <v>0</v>
       </c>
       <c r="D18" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3422,23 +3422,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0625</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3453,23 +3453,23 @@
         <v>1</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0625</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3484,23 +3484,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0625</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3515,23 +3515,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.0625</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3546,23 +3546,23 @@
         <v>1</v>
       </c>
       <c r="D23" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3577,23 +3577,23 @@
         <v>1</v>
       </c>
       <c r="D24" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F24" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3608,23 +3608,23 @@
         <v>1</v>
       </c>
       <c r="D25" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3639,23 +3639,23 @@
         <v>1</v>
       </c>
       <c r="D26" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3670,23 +3670,23 @@
         <v>1</v>
       </c>
       <c r="D27" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3701,23 +3701,23 @@
         <v>1</v>
       </c>
       <c r="D28" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9375</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3732,23 +3732,23 @@
         <v>0</v>
       </c>
       <c r="D29" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3763,23 +3763,23 @@
         <v>1</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="F30" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71428571428571397</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H30" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.571428571428601</v>
       </c>
     </row>
@@ -3794,23 +3794,23 @@
         <v>1</v>
       </c>
       <c r="D31" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71428571428571397</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.571428571428601</v>
       </c>
     </row>
@@ -3825,23 +3825,23 @@
         <v>1</v>
       </c>
       <c r="D32" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="F32" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71428571428571397</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.571428571428601</v>
       </c>
     </row>
@@ -3856,23 +3856,23 @@
         <v>1</v>
       </c>
       <c r="D33" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71428571428571397</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.571428571428601</v>
       </c>
     </row>
@@ -3923,11 +3923,11 @@
         <v>520</v>
       </c>
       <c r="C38" s="20">
-        <f t="shared" ref="C38:C49" si="18">GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
+        <f t="shared" ref="C38:C49" si="19">GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>541.11046847888997</v>
       </c>
       <c r="D38" s="49">
-        <f t="shared" ref="D38:D50" si="19">1-B38/C38</f>
+        <f t="shared" ref="D38:D50" si="20">1-B38/C38</f>
         <v>0.039013232433356901</v>
       </c>
       <c r="E38" s="50"/>
@@ -3936,14 +3936,14 @@
         <v>Welcome</v>
       </c>
       <c r="G38" s="52">
-        <f t="shared" ref="G38:G49" si="20">C38/3</f>
+        <f t="shared" ref="G38:G49" si="21">C38/3</f>
         <v>180.37015615963</v>
       </c>
       <c r="H38" s="10">
         <v>186</v>
       </c>
       <c r="I38" s="53">
-        <f t="shared" ref="I38:I49" si="21">1-G38/H38</f>
+        <f t="shared" ref="I38:I49" si="22">1-G38/H38</f>
         <v>0.03026797763639788</v>
       </c>
     </row>
@@ -3955,11 +3955,11 @@
         <v>422</v>
       </c>
       <c r="C39" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>446.373626373626</v>
       </c>
       <c r="D39" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.054603643525357001</v>
       </c>
       <c r="E39" s="50"/>
@@ -3968,14 +3968,14 @@
         <v>Login</v>
       </c>
       <c r="G39" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>148.79120879120899</v>
       </c>
       <c r="H39" s="10">
         <v>154</v>
       </c>
       <c r="I39" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.03382331953760398</v>
       </c>
     </row>
@@ -3987,11 +3987,11 @@
         <v>305</v>
       </c>
       <c r="C40" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>291.42857142857099</v>
       </c>
       <c r="D40" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.046568627450980199</v>
       </c>
       <c r="E40" s="50"/>
@@ -4000,14 +4000,14 @@
         <v>Flights</v>
       </c>
       <c r="G40" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>97.142857142857196</v>
       </c>
       <c r="H40" s="10">
         <v>100</v>
       </c>
       <c r="I40" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.028571428571428026</v>
       </c>
     </row>
@@ -4019,11 +4019,11 @@
         <v>282</v>
       </c>
       <c r="C41" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>283.92857142857099</v>
       </c>
       <c r="D41" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.0067924528301886999</v>
       </c>
       <c r="E41" s="50"/>
@@ -4032,14 +4032,14 @@
         <v>Find_flight</v>
       </c>
       <c r="G41" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>94.642857142857196</v>
       </c>
       <c r="H41" s="10">
         <v>96</v>
       </c>
       <c r="I41" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.014136904761904212</v>
       </c>
     </row>
@@ -4051,11 +4051,11 @@
         <v>270</v>
       </c>
       <c r="C42" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>283.92857142857099</v>
       </c>
       <c r="D42" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.049056603773584999</v>
       </c>
       <c r="E42" s="50"/>
@@ -4064,14 +4064,14 @@
         <v>Payment_details</v>
       </c>
       <c r="G42" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>94.642857142857196</v>
       </c>
       <c r="H42" s="10">
         <v>96</v>
       </c>
       <c r="I42" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.014136904761904212</v>
       </c>
     </row>
@@ -4083,11 +4083,11 @@
         <v>175</v>
       </c>
       <c r="C43" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>171.42857142857099</v>
       </c>
       <c r="D43" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.020833333333333301</v>
       </c>
       <c r="E43" s="50"/>
@@ -4096,14 +4096,14 @@
         <v>Invoice</v>
       </c>
       <c r="G43" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>57.142857142857103</v>
       </c>
       <c r="H43" s="10">
         <v>58</v>
       </c>
       <c r="I43" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.014778325123153357</v>
       </c>
     </row>
@@ -4115,11 +4115,11 @@
         <v>280</v>
       </c>
       <c r="C44" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>267.44505494505501</v>
       </c>
       <c r="D44" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.046944016435541899</v>
       </c>
       <c r="E44" s="56"/>
@@ -4128,14 +4128,14 @@
         <v>Itinerary</v>
       </c>
       <c r="G44" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>89.148351648351706</v>
       </c>
       <c r="H44" s="10">
         <v>91</v>
       </c>
       <c r="I44" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.020347784084047138</v>
       </c>
     </row>
@@ -4147,11 +4147,11 @@
         <v>73</v>
       </c>
       <c r="C45" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>69.230769230769198</v>
       </c>
       <c r="D45" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.054444444444444497</v>
       </c>
       <c r="E45" s="50"/>
@@ -4160,14 +4160,14 @@
         <v>Delete_one_itineraries</v>
       </c>
       <c r="G45" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23.076923076923102</v>
       </c>
       <c r="H45" s="10">
         <v>23</v>
       </c>
       <c r="I45" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.0033444816053522786</v>
       </c>
     </row>
@@ -4179,11 +4179,11 @@
         <v>326</v>
       </c>
       <c r="C46" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>333.873626373626</v>
       </c>
       <c r="D46" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.023582654488603801</v>
       </c>
       <c r="E46" s="50"/>
@@ -4192,14 +4192,14 @@
         <v>Logout</v>
       </c>
       <c r="G46" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>111.291208791209</v>
       </c>
       <c r="H46" s="10">
         <v>115</v>
       </c>
       <c r="I46" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.032250358337313045</v>
       </c>
     </row>
@@ -4211,11 +4211,11 @@
         <v>97</v>
       </c>
       <c r="C47" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>94.736842105263193</v>
       </c>
       <c r="D47" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.0238888888888889</v>
       </c>
       <c r="E47" s="50"/>
@@ -4224,14 +4224,14 @@
         <v>Signup</v>
       </c>
       <c r="G47" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.578947368421101</v>
       </c>
       <c r="H47" s="10">
         <v>32</v>
       </c>
       <c r="I47" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.013157894736840592</v>
       </c>
     </row>
@@ -4243,11 +4243,11 @@
         <v>97</v>
       </c>
       <c r="C48" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>94.736842105263193</v>
       </c>
       <c r="D48" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.0238888888888889</v>
       </c>
       <c r="E48" s="50"/>
@@ -4256,14 +4256,14 @@
         <v>Signup_done</v>
       </c>
       <c r="G48" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.578947368421101</v>
       </c>
       <c r="H48" s="10">
         <v>32</v>
       </c>
       <c r="I48" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.013157894736840592</v>
       </c>
     </row>
@@ -4275,11 +4275,11 @@
         <v>97</v>
       </c>
       <c r="C49" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>94.736842105263193</v>
       </c>
       <c r="D49" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.0238888888888889</v>
       </c>
       <c r="E49" s="50"/>
@@ -4288,14 +4288,14 @@
         <v>Login_after_registration</v>
       </c>
       <c r="G49" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.578947368421101</v>
       </c>
       <c r="H49" s="10">
         <v>32</v>
       </c>
       <c r="I49" s="53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.013157894736840592</v>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
         <v>2972.95835743204</v>
       </c>
       <c r="D50" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.0097405862950112904</v>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A61" zoomScale="90" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="E56" zoomScale="90" workbookViewId="0">
       <selection activeCell="L37" activeCellId="0" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -5290,11 +5290,11 @@
         <v>541</v>
       </c>
       <c r="H6" s="74">
-        <f>K6*3</f>
+        <f t="shared" ref="H6:H9" si="23">K6*3</f>
         <v>558</v>
       </c>
       <c r="I6" s="75">
-        <f t="shared" ref="I6:I9" si="22">1-G6/H6</f>
+        <f t="shared" ref="I6:I9" si="24">1-G6/H6</f>
         <v>0.03046594982078854</v>
       </c>
       <c r="J6" s="67"/>
@@ -5316,11 +5316,11 @@
         <v>446</v>
       </c>
       <c r="H7" s="74">
-        <f>K7*3</f>
+        <f t="shared" si="23"/>
         <v>462</v>
       </c>
       <c r="I7" s="75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.034632034632034681</v>
       </c>
       <c r="J7" s="67"/>
@@ -5342,11 +5342,11 @@
         <v>291</v>
       </c>
       <c r="H8" s="74">
-        <f>K8*3</f>
+        <f t="shared" si="23"/>
         <v>300</v>
       </c>
       <c r="I8" s="75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.030000000000000027</v>
       </c>
       <c r="J8" s="67"/>
@@ -5368,11 +5368,11 @@
         <v>284</v>
       </c>
       <c r="H9" s="74">
-        <f>K9*3</f>
+        <f t="shared" si="23"/>
         <v>288</v>
       </c>
       <c r="I9" s="75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.01388888888888884</v>
       </c>
       <c r="J9" s="67"/>
@@ -5394,11 +5394,11 @@
         <v>284</v>
       </c>
       <c r="H10" s="74">
-        <f>K10*3</f>
+        <f t="shared" ref="H10:H17" si="25">K10*3</f>
         <v>288</v>
       </c>
       <c r="I10" s="75">
-        <f t="shared" ref="I10:I73" si="23">1-G10/H10</f>
+        <f t="shared" ref="I10:I73" si="26">1-G10/H10</f>
         <v>0.01388888888888884</v>
       </c>
       <c r="J10" s="67"/>
@@ -5420,11 +5420,11 @@
         <v>171</v>
       </c>
       <c r="H11" s="74">
-        <f>K11*3</f>
+        <f t="shared" si="25"/>
         <v>174</v>
       </c>
       <c r="I11" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.017241379310344862</v>
       </c>
       <c r="J11" s="67"/>
@@ -5446,11 +5446,11 @@
         <v>267</v>
       </c>
       <c r="H12" s="74">
-        <f>K12*3</f>
+        <f t="shared" si="25"/>
         <v>273</v>
       </c>
       <c r="I12" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.021978021978022011</v>
       </c>
       <c r="J12" s="67"/>
@@ -5472,11 +5472,11 @@
         <v>69</v>
       </c>
       <c r="H13" s="74">
-        <f>K13*3</f>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="I13" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J13" s="67"/>
@@ -5498,11 +5498,11 @@
         <v>334</v>
       </c>
       <c r="H14" s="74">
-        <f>K14*3</f>
+        <f t="shared" si="25"/>
         <v>345</v>
       </c>
       <c r="I14" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.031884057971014457</v>
       </c>
       <c r="J14" s="67"/>
@@ -5524,11 +5524,11 @@
         <v>95</v>
       </c>
       <c r="H15" s="74">
-        <f>K15*3</f>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I15" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.01041666666666663</v>
       </c>
       <c r="J15" s="67"/>
@@ -5550,11 +5550,11 @@
         <v>95</v>
       </c>
       <c r="H16" s="74">
-        <f>K16*3</f>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I16" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.01041666666666663</v>
       </c>
       <c r="J16" s="67"/>
@@ -5576,11 +5576,11 @@
         <v>95</v>
       </c>
       <c r="H17" s="74">
-        <f>K17*3</f>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="I17" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.01041666666666663</v>
       </c>
       <c r="J17" s="67"/>
@@ -5730,11 +5730,11 @@
         <v>1082</v>
       </c>
       <c r="H26" s="74">
-        <f>K26*3</f>
+        <f t="shared" ref="H26:H37" si="27">K26*3</f>
         <v>1116</v>
       </c>
       <c r="I26" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.03046594982078854</v>
       </c>
       <c r="J26" s="67"/>
@@ -5756,11 +5756,11 @@
         <v>893</v>
       </c>
       <c r="H27" s="74">
-        <f t="shared" ref="H27:H37" si="24">K27*3</f>
+        <f t="shared" si="27"/>
         <v>924</v>
       </c>
       <c r="I27" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.033549783549783552</v>
       </c>
       <c r="J27" s="67"/>
@@ -5782,11 +5782,11 @@
         <v>583</v>
       </c>
       <c r="H28" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>600</v>
       </c>
       <c r="I28" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.028333333333333321</v>
       </c>
       <c r="J28" s="67"/>
@@ -5808,11 +5808,11 @@
         <v>568</v>
       </c>
       <c r="H29" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>576</v>
       </c>
       <c r="I29" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.01388888888888884</v>
       </c>
       <c r="J29" s="67"/>
@@ -5834,11 +5834,11 @@
         <v>568</v>
       </c>
       <c r="H30" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>576</v>
       </c>
       <c r="I30" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.01388888888888884</v>
       </c>
       <c r="J30" s="67"/>
@@ -5860,11 +5860,11 @@
         <v>343</v>
       </c>
       <c r="H31" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>348</v>
       </c>
       <c r="I31" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.014367816091954033</v>
       </c>
       <c r="J31" s="67"/>
@@ -5886,11 +5886,11 @@
         <v>535</v>
       </c>
       <c r="H32" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>546</v>
       </c>
       <c r="I32" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.020146520146520186</v>
       </c>
       <c r="J32" s="67"/>
@@ -5912,11 +5912,11 @@
         <v>138</v>
       </c>
       <c r="H33" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>138</v>
       </c>
       <c r="I33" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J33" s="67"/>
@@ -5938,11 +5938,11 @@
         <v>668</v>
       </c>
       <c r="H34" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>690</v>
       </c>
       <c r="I34" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.031884057971014457</v>
       </c>
       <c r="J34" s="67"/>
@@ -5964,11 +5964,11 @@
         <v>189</v>
       </c>
       <c r="H35" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>192</v>
       </c>
       <c r="I35" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.015625</v>
       </c>
       <c r="J35" s="67"/>
@@ -5990,11 +5990,11 @@
         <v>189</v>
       </c>
       <c r="H36" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>192</v>
       </c>
       <c r="I36" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.015625</v>
       </c>
       <c r="J36" s="67"/>
@@ -6016,11 +6016,11 @@
         <v>189</v>
       </c>
       <c r="H37" s="74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>192</v>
       </c>
       <c r="I37" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.015625</v>
       </c>
       <c r="J37" s="67"/>
@@ -6146,7 +6146,7 @@
         <v>1090</v>
       </c>
       <c r="I44" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0073394495412844041</v>
       </c>
       <c r="J44" s="67"/>
@@ -6169,7 +6169,7 @@
         <v>900</v>
       </c>
       <c r="I45" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0077777777777777724</v>
       </c>
       <c r="J45" s="67"/>
@@ -6192,7 +6192,7 @@
         <v>588</v>
       </c>
       <c r="I46" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0085034013605441716</v>
       </c>
       <c r="J46" s="67"/>
@@ -6215,7 +6215,7 @@
         <v>572</v>
       </c>
       <c r="I47" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0069930069930069783</v>
       </c>
       <c r="J47" s="67"/>
@@ -6238,7 +6238,7 @@
         <v>572</v>
       </c>
       <c r="I48" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0069930069930069783</v>
       </c>
       <c r="J48" s="67"/>
@@ -6261,7 +6261,7 @@
         <v>344</v>
       </c>
       <c r="I49" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0029069767441860517</v>
       </c>
       <c r="J49" s="67"/>
@@ -6284,7 +6284,7 @@
         <v>540</v>
       </c>
       <c r="I50" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0092592592592593004</v>
       </c>
       <c r="J50" s="67"/>
@@ -6307,7 +6307,7 @@
         <v>138</v>
       </c>
       <c r="I51" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J51" s="67"/>
@@ -6330,7 +6330,7 @@
         <v>672</v>
       </c>
       <c r="I52" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0059523809523809312</v>
       </c>
       <c r="J52" s="67"/>
@@ -6353,7 +6353,7 @@
         <v>190</v>
       </c>
       <c r="I53" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0052631578947368585</v>
       </c>
       <c r="J53" s="67"/>
@@ -6376,7 +6376,7 @@
         <v>190</v>
       </c>
       <c r="I54" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0052631578947368585</v>
       </c>
       <c r="J54" s="67"/>
@@ -6399,7 +6399,7 @@
         <v>190</v>
       </c>
       <c r="I55" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.0052631578947368585</v>
       </c>
       <c r="J55" s="67"/>
@@ -6529,11 +6529,11 @@
         <v>1623</v>
       </c>
       <c r="H63" s="74">
-        <f t="shared" ref="H63:H74" si="25">K63*3</f>
+        <f t="shared" ref="H63:H74" si="28">K63*3</f>
         <v>1599</v>
       </c>
       <c r="I63" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.015009380863039379</v>
       </c>
       <c r="J63" s="67"/>
@@ -6555,11 +6555,11 @@
         <v>1339</v>
       </c>
       <c r="H64" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1218</v>
       </c>
       <c r="I64" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.099343185550082147</v>
       </c>
       <c r="J64" s="67"/>
@@ -6581,11 +6581,11 @@
         <v>874</v>
       </c>
       <c r="H65" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>699</v>
       </c>
       <c r="I65" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.25035765379113029</v>
       </c>
       <c r="J65" s="67"/>
@@ -6607,11 +6607,11 @@
         <v>852</v>
       </c>
       <c r="H66" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>654</v>
       </c>
       <c r="I66" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.30275229357798161</v>
       </c>
       <c r="J66" s="67"/>
@@ -6633,11 +6633,11 @@
         <v>852</v>
       </c>
       <c r="H67" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>645</v>
       </c>
       <c r="I67" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.32093023255813957</v>
       </c>
       <c r="J67" s="67"/>
@@ -6659,11 +6659,11 @@
         <v>514</v>
       </c>
       <c r="H68" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>324</v>
       </c>
       <c r="I68" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.58641975308641969</v>
       </c>
       <c r="J68" s="67"/>
@@ -6685,11 +6685,11 @@
         <v>802</v>
       </c>
       <c r="H69" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>813</v>
       </c>
       <c r="I69" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.013530135301353052</v>
       </c>
       <c r="J69" s="67"/>
@@ -6711,11 +6711,11 @@
         <v>208</v>
       </c>
       <c r="H70" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>225</v>
       </c>
       <c r="I70" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.075555555555555598</v>
       </c>
       <c r="J70" s="67"/>
@@ -6737,11 +6737,11 @@
         <v>1002</v>
       </c>
       <c r="H71" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>855</v>
       </c>
       <c r="I71" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.1719298245614036</v>
       </c>
       <c r="J71" s="67"/>
@@ -6763,11 +6763,11 @@
         <v>284</v>
       </c>
       <c r="H72" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>357</v>
       </c>
       <c r="I72" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.20448179271708689</v>
       </c>
       <c r="J72" s="67"/>
@@ -6789,11 +6789,11 @@
         <v>284</v>
       </c>
       <c r="H73" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>357</v>
       </c>
       <c r="I73" s="75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.20448179271708689</v>
       </c>
       <c r="J73" s="67"/>
@@ -6815,11 +6815,11 @@
         <v>284</v>
       </c>
       <c r="H74" s="74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>354</v>
       </c>
       <c r="I74" s="75">
-        <f t="shared" ref="I74:I92" si="26">1-G74/H74</f>
+        <f t="shared" ref="I74:I92" si="29">1-G74/H74</f>
         <v>0.19774011299435024</v>
       </c>
       <c r="J74" s="67"/>
@@ -6845,7 +6845,10 @@
       </c>
       <c r="I75" s="68"/>
       <c r="J75" s="67"/>
-      <c r="K75" s="68"/>
+      <c r="K75" s="68">
+        <f>SUM(K63:K74)</f>
+        <v>2700</v>
+      </c>
       <c r="L75" s="69"/>
       <c r="M75" s="69"/>
       <c r="N75" s="69"/>
@@ -6912,7 +6915,7 @@
         <v>1082</v>
       </c>
       <c r="I81" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J81" s="67"/>
@@ -6934,7 +6937,7 @@
         <v>890</v>
       </c>
       <c r="I82" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.00337078651685396</v>
       </c>
       <c r="J82" s="67"/>
@@ -6956,7 +6959,7 @@
         <v>580</v>
       </c>
       <c r="I83" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.0051724137931035098</v>
       </c>
       <c r="J83" s="67"/>
@@ -6978,7 +6981,7 @@
         <v>567</v>
       </c>
       <c r="I84" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.0017636684303350401</v>
       </c>
       <c r="J84" s="67"/>
@@ -7000,7 +7003,7 @@
         <v>568</v>
       </c>
       <c r="I85" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J85" s="67"/>
@@ -7022,7 +7025,7 @@
         <v>343</v>
       </c>
       <c r="I86" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J86" s="67"/>
@@ -7044,7 +7047,7 @@
         <v>534</v>
       </c>
       <c r="I87" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.00187265917602986</v>
       </c>
       <c r="J87" s="67"/>
@@ -7066,7 +7069,7 @@
         <v>139</v>
       </c>
       <c r="I88" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.0071942446043165003</v>
       </c>
       <c r="J88" s="67"/>
@@ -7088,7 +7091,7 @@
         <v>663</v>
       </c>
       <c r="I89" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.0075414781297133996</v>
       </c>
       <c r="J89" s="67"/>
@@ -7110,7 +7113,7 @@
         <v>190</v>
       </c>
       <c r="I90" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.0052631578947368602</v>
       </c>
       <c r="J90" s="67"/>
@@ -7132,7 +7135,7 @@
         <v>190</v>
       </c>
       <c r="I91" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.0052631578947368602</v>
       </c>
       <c r="J91" s="67"/>
@@ -7154,7 +7157,7 @@
         <v>190</v>
       </c>
       <c r="I92" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.0052631578947368602</v>
       </c>
       <c r="J92" s="67"/>
